--- a/venv/Scripts/Excel_files/pd.xlsx
+++ b/venv/Scripts/Excel_files/pd.xlsx
@@ -371,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01159210</t>
+          <t>01075540</t>
         </is>
       </c>
     </row>
@@ -449,12 +449,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01159210</t>
+          <t>01075540</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1P</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>51018</t>
+          <t>88154</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -479,226 +479,184 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01075540</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AIRN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>93853</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>3H</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Resort</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>BWI Rate Codes</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>RATE LEVEL</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>Rate Code for Avail</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Base Rate</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>FORECAST SEGMENT</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>Flat/Percentage</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>Rate Code for Confirm</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>MODIFY_RATE_YN</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>MODIFY_CONFIRM_YN</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>MODIFY_INVENTORY_YN</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>MODIFY_STATUS_YN</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>ROH_YN</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>51018</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>88154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>fff</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>RACK</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RACK</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>CORPORATE</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>4H</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Resort</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>BWI Rate Code</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Begin Date</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>1 Person rate</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>2 Person rate</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>51018</t>
+          <t>93853</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,30 +666,59 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12/31/2018</t>
+          <t>RACK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12/31/2019</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.15</v>
+          <t>8A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CORPORATE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>4H</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -807,11 +794,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51018</t>
+          <t>88154</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -821,107 +808,66 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>STANDARD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12/31/2018</t>
+          <t>07/01/2019</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12/31/2019</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>129.99</v>
+        <v>-0.12</v>
       </c>
       <c r="H10" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>93853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STANDARD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07/01/2019</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12/31/2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>6H</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Resort</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>BWI Rate Code</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Begin Date</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>1 Person rate</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>2 Person rate</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7H</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -996,84 +942,350 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>8H</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Resort</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>BWI Rate Code</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Begin Date</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Guarantee Policy</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>Cancel Code</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>Hold Code</t>
-        </is>
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>88154</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STANDARD</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07/01/2019</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12/31/2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>790</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>93853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STANDARD</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07/01/2019</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12/31/2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>6H</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Resort</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>BWI Rate Code</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>Begin Date</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>1 Person rate</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>2 Person rate</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>7H</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Resort</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>BWI Rate Code</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Begin Date</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>1 Person rate</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>2 Person rate</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8H</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Resort</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>BWI Rate Code</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Begin Date</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Guarantee Policy</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>Cancel Code</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>Hold Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>8</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>51018</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>88154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>fff</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>07/06/2020</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>07/08/2020</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>12/31/2099</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>GTD</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6PM</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6PM</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>93853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>07/08/2020</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12/31/2099</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GTD</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4PM</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1159210</v>
+        <v>1075540</v>
       </c>
     </row>
     <row r="3">
@@ -1179,12 +1391,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Y</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
